--- a/TradingSimula_18-2022/TF-Boll-ATRNORM_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Boll-ATRNORM_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>3866.749999999994</v>
+        <v>228081.0499999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-87.34999999999582</v>
+        <v>-215474.4749999994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-145.8500000000038</v>
+        <v>-638404.1449999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>2562.749999999995</v>
+        <v>-1219849.2575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>2177.949999999998</v>
+        <v>-878883.2325000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>6102.200000000004</v>
+        <v>-1015882.1325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>13145.75</v>
+        <v>-1309686.7825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>17158.05</v>
+        <v>-1011298.9325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>50764.64999999999</v>
+        <v>-1599103.632500001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>92355.04999999999</v>
+        <v>-1854387.342499999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>83303.60000000001</v>
+        <v>-1685183.467499999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>140866.3</v>
+        <v>-634069.3424999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>172324.8</v>
+        <v>-1661900.342499999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>195681.55</v>
+        <v>-1153188.192499999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>201850.3</v>
+        <v>-224296.9174999996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>201644.7</v>
+        <v>-1365911.7575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>188126.15</v>
+        <v>-1309197.0075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>176981.15</v>
+        <v>-1744649.2675</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>199759.1</v>
+        <v>-1629640.852500001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>188614.8</v>
+        <v>-1533716.577500001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>168509.65</v>
+        <v>-1284584.777500001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>169240.9</v>
+        <v>-1181714.7525</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>166412.45</v>
+        <v>-2241030.727500001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>171046.6</v>
+        <v>-2402139.507500001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>161482.5</v>
+        <v>-2554649.857500002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>167031</v>
+        <v>-3246156.637500001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>173823</v>
+        <v>-2844164.147500002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>172808.4</v>
+        <v>-3298316.882500002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>191637.9</v>
+        <v>-3099041.982500001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>176669.35</v>
+        <v>-1746309.207500002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>175008.1</v>
+        <v>-488838.7075000021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>174323.1</v>
+        <v>173057.4674999975</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>174323.1</v>
+        <v>1246722.967499997</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>167948.1</v>
+        <v>135634.7674999986</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>170460.6</v>
+        <v>105894.3924999979</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>169717.8</v>
+        <v>-81242.43250000192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>172206.85</v>
+        <v>969073.0674999994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>172298.05</v>
+        <v>1166482.987499998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41361</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>176687.4</v>
+        <v>-1106456.627500002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>173121.85</v>
+        <v>-1557789.127500002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>175382.6</v>
+        <v>-1444942.775000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>174762.25</v>
+        <v>-1851450.075000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>169694</v>
+        <v>-1657656.927500003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>165769.2</v>
+        <v>-1627331.927500003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>166445.85</v>
+        <v>-2901783.007500003</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>171908.15</v>
+        <v>-2132949.457500002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>168772.55</v>
+        <v>-2782554.907500003</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>164835.1</v>
+        <v>-1469255.935000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>169719.15</v>
+        <v>-814189.3050000019</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>182212.7</v>
+        <v>401996.5199999991</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>187692.7</v>
+        <v>-1311733.829999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>196711.45</v>
+        <v>-3484052.799999997</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>184953.9500000001</v>
+        <v>-3744998.424999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>192013.9500000001</v>
+        <v>-5151069.549999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>220484.3500000001</v>
+        <v>-4604060.409999997</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>219602.7500000001</v>
+        <v>-6031455.129999996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>227184.7500000001</v>
+        <v>-4925920.329999995</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>217718.7000000001</v>
+        <v>-3647576.379999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>221592.7000000001</v>
+        <v>-2374249.769999997</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>226323.1</v>
+        <v>-3404950.469999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>215113.5000000001</v>
+        <v>-5529121.319999995</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>222562.2500000001</v>
+        <v>-4404700.444999995</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>230496.2500000001</v>
+        <v>-4724468.619999995</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>218279.2500000001</v>
+        <v>-7484621.264999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>216499.7500000001</v>
+        <v>-8431800.364999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>212610.7500000001</v>
+        <v>-9464140.614999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>222740.0000000001</v>
+        <v>-9070069.039999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>218871.2500000001</v>
+        <v>-8778794.059999997</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>216924.5</v>
+        <v>-6615116.909999998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>213601.1</v>
+        <v>-7662887.684999997</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>214519.5000000001</v>
+        <v>-6661586.434999996</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>215213.9</v>
+        <v>-6779406.574999997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>212955.8</v>
+        <v>-2008850.774999994</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>212822.75</v>
+        <v>-3187529.774999993</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>205695.35</v>
+        <v>-972285.1499999932</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>199846.8</v>
+        <v>5339314.550000006</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>196560.55</v>
+        <v>7311889.850000004</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>201931.2</v>
+        <v>-2778802.249999996</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>210573.85</v>
+        <v>-6400580.774999993</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>200997.55</v>
+        <v>-8243878.942499993</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>201386.6</v>
+        <v>-7706682.992499992</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>200847.5</v>
+        <v>-5443800.554999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>196452.1500000001</v>
+        <v>1974022.094999997</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>197059.8</v>
+        <v>-655220.5949999979</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>189086.2</v>
+        <v>-2151527.112499995</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>188856.2000000001</v>
+        <v>-7398359.122499997</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>192758.2</v>
+        <v>-11606853.6025</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>193401.1000000001</v>
+        <v>-8005104.137499994</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>195592.2500000001</v>
+        <v>-9545992.047499988</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>202425.7</v>
+        <v>-4538841.52249999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>196557.95</v>
+        <v>-3926962.587499989</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>195326.55</v>
+        <v>-10893244.77499998</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>195326.55</v>
+        <v>-2892886.649999986</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>195326.55</v>
+        <v>1059201.950000017</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>194170.55</v>
+        <v>1631415.025000012</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>195115.4000000001</v>
+        <v>5877824.800000018</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>193324.4000000001</v>
+        <v>16761660.50000002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>196197.0000000001</v>
+        <v>43874891.65000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>198477.9500000001</v>
+        <v>26981331.17500002</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>198055.05</v>
+        <v>24257847.54250002</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>199320.9500000001</v>
+        <v>30638195.61750002</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>196524.7000000001</v>
+        <v>31653085.50750003</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>200445.9000000001</v>
+        <v>16856945.75750003</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>204515.1500000001</v>
+        <v>19081531.80750002</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>203402.4000000001</v>
+        <v>25722948.17750002</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>196963.6500000001</v>
+        <v>54485575.64250002</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>194665.9000000001</v>
+        <v>63204803.56250001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>194444.9000000001</v>
+        <v>70533132.13250001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>193344.9000000001</v>
+        <v>68199508.82750002</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>194924.9000000001</v>
+        <v>69812782.65500002</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>193624.9000000001</v>
+        <v>64780695.43000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>195068.6500000001</v>
+        <v>65365156.43000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>196217.8500000001</v>
+        <v>75259072.89500001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>196581.9500000001</v>
+        <v>71587467.87000002</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>191822.3500000001</v>
+        <v>70631001.26750001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>199120.9500000001</v>
+        <v>74462343.2175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>193535.3500000001</v>
+        <v>78112129.16750002</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>192790.3500000001</v>
+        <v>72113525.42750001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>194784.6000000001</v>
+        <v>81553287.12750003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>203311.3500000001</v>
+        <v>78696186.52250001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>203194.1000000001</v>
+        <v>71585375.53749999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>205993.1000000001</v>
+        <v>67607104.1375</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>217874.5000000001</v>
+        <v>68563522.6675</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>213374.9000000001</v>
+        <v>69433394.74750002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>211183.2000000001</v>
+        <v>62043099.84750001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>205096.1000000001</v>
+        <v>65494737.50750001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>202799.8500000001</v>
+        <v>65572927.6975</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>203513.9500000001</v>
+        <v>69725957.1075</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>194297.1500000001</v>
+        <v>81011806.83750001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>198550.1500000001</v>
+        <v>95108481.94749999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>199867.1500000001</v>
+        <v>89855371.8875</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>207242.5500000001</v>
+        <v>115971090.735</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>207400.7500000001</v>
+        <v>119154531.24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>222387.4500000001</v>
+        <v>125848246.66</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>209034.2000000001</v>
+        <v>119093210.38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>209737.2500000001</v>
+        <v>132362350.105</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>218851.5500000001</v>
+        <v>103975397.58</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>214225.2500000001</v>
+        <v>95270147.29000002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>218021.4500000001</v>
+        <v>102673649.915</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>232176.6000000001</v>
+        <v>116147257.855</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>233958.9000000001</v>
+        <v>137253198.305</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>242921.7500000001</v>
+        <v>86736295.405</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>249398.5000000001</v>
+        <v>87559021.80500001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>243783.9000000001</v>
+        <v>87509271.30500001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>267303.3</v>
+        <v>80587252.54249999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>260584.1500000001</v>
+        <v>82448202.43000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>88864533.60000002</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>78724907.11500001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>88304961.11500004</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>74118257.46500002</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>80375577.12500003</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>73614082.15500003</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>71866184.35500002</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>63320479.20500004</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>55760092.30500001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>54019952.80500002</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>59384769.84500002</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>59810375.62500004</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>60929436.33750002</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>65196638.49250001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>72602033.02250002</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>73774893.81250003</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>73177261.40250006</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>72589519.05250007</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>69273487.03750005</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>71960978.78750005</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>73517360.78750005</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>77638536.31250006</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>69461175.87500006</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68263318.92500006</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>66700418.46250006</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>69059209.50000006</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>60179591.35000005</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>59250425.00000007</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>61070369.45000007</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>62474763.10000008</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>69117155.87500007</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67846764.74000007</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>76961761.97500007</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>78785813.15000007</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>84663365.14000008</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>77196991.40500008</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>77840657.55500007</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>73734093.30500007</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>70683134.95500007</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>70809214.10500006</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>67317355.50000006</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>64720839.80000006</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>64218462.19500006</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>57977851.22000007</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>58022454.23250008</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>57625108.93250006</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>55518472.27250008</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>57015844.19250006</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>53998489.32250006</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>54668621.72250007</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>52093088.71250007</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>54545547.96000007</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>56821752.00500007</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>50906904.23750007</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>51308210.08750007</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>49796226.53750007</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>53596120.16250008</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>53800194.05750006</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>51209394.51750007</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>53229206.82750007</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>49634699.63750008</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>48926697.02500008</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>46135727.64500007</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>46372711.51500008</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>45123349.86500008</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>42983677.22500008</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>40423834.19000009</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>42033790.7900001</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>43454218.21500009</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>44786622.41500008</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>53598785.51500009</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>50048944.1150001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>48412221.86500009</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>48755825.09000009</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>49036747.9775001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>46927669.7775001</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>48083627.9275001</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>51379097.1775001</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>51192968.22250009</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>48225674.6725001</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>50043276.2875001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>51021783.70500011</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>48292141.0800001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>47211652.15500011</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>46941499.78000011</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>46335901.3300001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>48065697.9850001</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>48041262.10500012</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>47568150.4350001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>52233927.72500011</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>44187413.8275001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>42216428.6225001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>43706374.62250011</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>48515391.72250012</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>46681738.05000013</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>49477510.44000011</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>61919050.5150001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>59206773.31500012</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>54459814.54000013</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>52427988.88000012</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>58363672.31000015</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>68240640.45250015</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>48306728.65250013</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>57345928.82500011</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>59220125.59500013</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>81160794.19500007</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>97574252.79500011</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>134849131.4075001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>145609453.2975001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>167211389.6075001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>167146492.1650001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>144156487.1200001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>142727702.3850001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>143893327.2475001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>149384922.9675001</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>149673942.2375001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>146251729.6875001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>141883872.1475001</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>143053922.2175001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>149068019.7675001</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>268628.8000000001</v>
+      <c r="B269" t="n">
+        <v>161673568.1675001</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>182131159.3675002</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>176796547.7175002</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>184195264.2675001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>178976969.7775002</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>172297156.1275001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>176791938.4075001</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>173578883.3775001</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>167007304.6075001</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>167764436.2075001</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>171218874.3925001</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>161921936.2825001</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>156106936.8450001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>160735376.4550001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>159382526.2400002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>156771595.9400001</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>156773986.2600001</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>154334285.6900001</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>159137799.2400001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>159279372.8850001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>150384153.4500001</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>161187811.4400001</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>153843938.6450001</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>156537441.7475001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>157938316.2475001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>162817723.9975002</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>158522509.6075002</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>154461439.0225001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>151755014.4975002</v>
       </c>
     </row>
   </sheetData>
